--- a/KashTable/files/derived/sample-kt-2.xlsx
+++ b/KashTable/files/derived/sample-kt-2.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanmeilhoc/anaconda3/lib/python3.7/acturialcapital/Kashtable/Engine/files/derived/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanmeilhoc/anaconda3/lib/python3.7/acturialcapital/KashTable/KashTable/files/derived/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D1D5E-EAD2-364E-9551-7B1E25FE710B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297F709B-4B67-1847-87FA-7A7860BC41ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15480" windowHeight="21460" xr2:uid="{FAA13774-03C3-1441-8A4E-48C328F8E602}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="database" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$T$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$L$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="122">
   <si>
     <t>Description</t>
   </si>
@@ -805,7 +807,7 @@
   <dimension ref="A1:AD182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11868,4 +11870,6700 @@
   <autoFilter ref="A1:T163" xr:uid="{4B09C797-B55F-8243-94F3-B8ACAD33B426}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5310579E-1804-2348-93D8-E91D101A6944}">
+  <dimension ref="A1:V182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="10.83203125" style="3"/>
+    <col min="23" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43830</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43831</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43890</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43921</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43982</v>
+      </c>
+      <c r="H1" s="5">
+        <v>44012</v>
+      </c>
+      <c r="I1" s="5">
+        <v>44043</v>
+      </c>
+      <c r="J1" s="5">
+        <v>44074</v>
+      </c>
+      <c r="K1" s="5">
+        <v>44104</v>
+      </c>
+      <c r="L1" s="5">
+        <v>44135</v>
+      </c>
+      <c r="M1" s="5">
+        <v>44165</v>
+      </c>
+      <c r="N1" s="5">
+        <v>44196</v>
+      </c>
+      <c r="O1" s="5">
+        <v>44227</v>
+      </c>
+      <c r="P1" s="5">
+        <v>44255</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>44286</v>
+      </c>
+      <c r="R1" s="5">
+        <v>44316</v>
+      </c>
+      <c r="S1" s="5">
+        <v>44347</v>
+      </c>
+      <c r="T1" s="5">
+        <v>44377</v>
+      </c>
+      <c r="U1" s="5">
+        <v>44408</v>
+      </c>
+      <c r="V1" s="5">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>555</v>
+      </c>
+      <c r="D2" s="4">
+        <v>75274.64</v>
+      </c>
+      <c r="E2" s="4">
+        <v>89083.97</v>
+      </c>
+      <c r="F2" s="4">
+        <v>105708.97</v>
+      </c>
+      <c r="G2" s="4">
+        <v>134561.47</v>
+      </c>
+      <c r="H2" s="4">
+        <v>226643.15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>327398.69</v>
+      </c>
+      <c r="J2" s="4">
+        <v>385240.38</v>
+      </c>
+      <c r="K2" s="4">
+        <v>483688.71</v>
+      </c>
+      <c r="L2" s="4">
+        <v>580355.56000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9031</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9031</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9031</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9031</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9031</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8981.17</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8981.17</v>
+      </c>
+      <c r="K5" s="4">
+        <v>8981.17</v>
+      </c>
+      <c r="L5" s="4">
+        <v>8981.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>36625.009999999995</v>
+      </c>
+      <c r="D6" s="4">
+        <v>84305.64</v>
+      </c>
+      <c r="E6" s="4">
+        <v>98114.97</v>
+      </c>
+      <c r="F6" s="4">
+        <v>114739.97</v>
+      </c>
+      <c r="G6" s="4">
+        <v>143592.47</v>
+      </c>
+      <c r="H6" s="4">
+        <v>235674.15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>336379.86</v>
+      </c>
+      <c r="J6" s="4">
+        <v>394221.55</v>
+      </c>
+      <c r="K6" s="4">
+        <v>492669.88</v>
+      </c>
+      <c r="L6" s="4">
+        <v>589336.7300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-14291.065000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-35139.1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-52489.854999999996</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-97154.12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-102848.5682875107</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-131508.1432875107</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-168487.36828751068</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-200394.33328751067</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-231806.74828751065</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-242463.29328751063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1500</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-17000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-25000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-25000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-26132</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-26632</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-26632</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-27132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-10579.93</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-25690.239999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-32476.67</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-35760.913750512736</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-46629.448090271573</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-64229.733634699973</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-75279.699224280339</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-82785.459224280334</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-89779.163322423934</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-92173.033322423929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-6882.97</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-13309.560000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-18826.060000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-25284.97</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-33022.71</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-44924.369999999995</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-59220.7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-75052.289999999994</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-88522.37999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-101975.46999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-25235.07</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-58453.399999999994</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-81772.319999999992</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-104565.34999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-135661.82999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-173063.87</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-211707.82</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-247446.36000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-284965.34000000003</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-323738.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-2631.67</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-4633.6100000000006</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-6828.2000000000007</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-8926.4600000000009</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-10735.740000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-15165.940000000002</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-20322.68</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-23408.36</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-25249.82</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-33324.129999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-60120.705000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-138225.90999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-193893.10499999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-288691.81375051272</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-353898.29637778224</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-453892.05692221067</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-561150.26751179108</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-655718.802511791</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-746955.45160993456</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-820805.99660993449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-15512.029999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-33374.61</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-46993.52</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-52265.979999999996</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-58632.939999999995</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-68740.649999999994</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-76755.03</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-85470.27</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-97932.62</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-113468.45999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-465</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-6215.78</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-6680.78</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-6680.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-1800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-3600</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-5600</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-6600</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-8100</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-12451</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-15091</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-15229</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-15505</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-16000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-6792.32</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-14445.2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-19475.47</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-24280.52</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-31662.03</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-40271.32</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-57213.16</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-65094.640000000007</v>
+      </c>
+      <c r="K17" s="4">
+        <v>-74948.590000000011</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-88038.560000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-8060.78</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-17523.29</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-24723.38</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-34666.699999999997</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-48828.289999999994</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-68060.429999999993</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-85218.81</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-101406.67</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-117886.41</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-135948.17000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-3246.77</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-8744.4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-12278.029999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-14797.499999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-18195.409999999996</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-22768.409999999996</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-27376.309999999998</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-31949.309999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-36522.31</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-41034.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-35876.899999999994</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-83903.28</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-115286.18</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-138826.47999999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-171634.44999999998</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-218507.59</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-267870.08999999997</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-305365.67</v>
+      </c>
+      <c r="K20" s="4">
+        <v>-349475.71</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-401170.06999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-6257.8899999999994</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-13319.31</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-19235.34</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-23480.080000000002</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-30272.980000000003</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-39451.26</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-56061.61</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-71550.78</v>
+      </c>
+      <c r="K21" s="4">
+        <v>-95061.47</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-115473.98000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-630</v>
+      </c>
+      <c r="K22" s="4">
+        <v>-630</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>911.1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-2743.8</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-2532.7000000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-2532.7000000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-2532.7000000000003</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-1132.7000000000003</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-1260.7000000000003</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-1340.7000000000003</v>
+      </c>
+      <c r="K23" s="4">
+        <v>-950.60000000000025</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-1655.2000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-5346.7899999999991</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-16063.11</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-21768.04</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-26012.780000000002</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-32805.68</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-40583.96</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-57322.31</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-73521.48</v>
+      </c>
+      <c r="K25" s="4">
+        <v>-96642.07</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-118059.18000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-101344.39499999999</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-238192.3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>-330947.32499999995</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-453531.07375051273</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-558338.42637778225</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-712983.60692221066</v>
+      </c>
+      <c r="I26" s="4">
+        <v>-886342.66751179099</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-1034605.9525117909</v>
+      </c>
+      <c r="K26" s="4">
+        <v>-1193073.2316099347</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-1340035.2466099344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-153886.65999999997</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-232832.35499999995</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-338791.1037505127</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-414745.95637778228</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-477309.45692221064</v>
+      </c>
+      <c r="I27" s="4">
+        <v>-549962.807511791</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-640384.40251179086</v>
+      </c>
+      <c r="K27" s="4">
+        <v>-700403.3516099347</v>
+      </c>
+      <c r="L27" s="4">
+        <v>-750698.51660993428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-1.7670817018206959</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-1.8253424088827268</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-2.3730563745777014</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-2.9526860060231206</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-2.8883544964285544</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-2.0252940635288623</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-1.6349457054646228</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-1.6244276917682223</v>
+      </c>
+      <c r="K28" s="4">
+        <v>-1.4216484101076663</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-1.2738023584749829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-153886.65999999997</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-232832.35499999995</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-338791.1037505127</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-414745.95637778228</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-477309.45692221064</v>
+      </c>
+      <c r="I31" s="4">
+        <v>-549962.807511791</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-640384.40251179086</v>
+      </c>
+      <c r="K31" s="4">
+        <v>-700403.3516099347</v>
+      </c>
+      <c r="L31" s="4">
+        <v>-750698.51660993428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-153886.65999999997</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-232832.35499999995</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-338791.1037505127</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-414745.95637778228</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-477309.45692221064</v>
+      </c>
+      <c r="I35" s="4">
+        <v>-549962.807511791</v>
+      </c>
+      <c r="J35" s="4">
+        <v>-640384.40251179086</v>
+      </c>
+      <c r="K35" s="4">
+        <v>-700403.3516099347</v>
+      </c>
+      <c r="L35" s="4">
+        <v>-750698.51660993428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>30.46</v>
+      </c>
+      <c r="G36" s="4">
+        <v>30.46</v>
+      </c>
+      <c r="H36" s="4">
+        <v>70.460000000000008</v>
+      </c>
+      <c r="I36" s="4">
+        <v>850.46</v>
+      </c>
+      <c r="J36" s="4">
+        <v>850.46</v>
+      </c>
+      <c r="K36" s="4">
+        <v>934.03</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2874.0299999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>36625.009999999995</v>
+      </c>
+      <c r="D37" s="4">
+        <v>38649.630000000005</v>
+      </c>
+      <c r="E37" s="4">
+        <v>13809.33</v>
+      </c>
+      <c r="F37" s="4">
+        <v>16625</v>
+      </c>
+      <c r="G37" s="4">
+        <v>28852.5</v>
+      </c>
+      <c r="H37" s="4">
+        <v>92081.68</v>
+      </c>
+      <c r="I37" s="4">
+        <v>100755.54000000001</v>
+      </c>
+      <c r="J37" s="4">
+        <v>57841.689999999995</v>
+      </c>
+      <c r="K37" s="4">
+        <v>98448.33</v>
+      </c>
+      <c r="L37" s="4">
+        <v>96666.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9031</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>-49.83</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4">
+        <v>36625.009999999995</v>
+      </c>
+      <c r="D41" s="4">
+        <v>47680.630000000005</v>
+      </c>
+      <c r="E41" s="4">
+        <v>13809.33</v>
+      </c>
+      <c r="F41" s="4">
+        <v>16625</v>
+      </c>
+      <c r="G41" s="4">
+        <v>28852.5</v>
+      </c>
+      <c r="H41" s="4">
+        <v>92081.68</v>
+      </c>
+      <c r="I41" s="4">
+        <v>100705.71</v>
+      </c>
+      <c r="J41" s="4">
+        <v>57841.689999999995</v>
+      </c>
+      <c r="K41" s="4">
+        <v>98448.33</v>
+      </c>
+      <c r="L41" s="4">
+        <v>96666.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-14291.065000000002</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-20848.034999999996</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-17350.755000000001</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-44664.264999999999</v>
+      </c>
+      <c r="G42" s="4">
+        <v>-5694.4482875107042</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-28659.575000000004</v>
+      </c>
+      <c r="I42" s="4">
+        <v>-36979.224999999984</v>
+      </c>
+      <c r="J42" s="4">
+        <v>-31906.965000000004</v>
+      </c>
+      <c r="K42" s="4">
+        <v>-31412.414999999994</v>
+      </c>
+      <c r="L42" s="4">
+        <v>-10656.544999999976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-500</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-500</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-15500</v>
+      </c>
+      <c r="G43" s="4">
+        <v>-8000</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>-1132</v>
+      </c>
+      <c r="J43" s="4">
+        <v>-500</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>-10579.93</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-15110.309999999998</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-6786.43</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-3284.2437505127391</v>
+      </c>
+      <c r="G44" s="4">
+        <v>-10868.534339758833</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-17600.2855444284</v>
+      </c>
+      <c r="I44" s="4">
+        <v>-11049.965589580373</v>
+      </c>
+      <c r="J44" s="4">
+        <v>-7505.7599999999993</v>
+      </c>
+      <c r="K44" s="4">
+        <v>-6993.7040981436012</v>
+      </c>
+      <c r="L44" s="4">
+        <v>-2393.8700000000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4">
+        <v>-6882.97</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-6426.59</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-5516.5</v>
+      </c>
+      <c r="F45" s="4">
+        <v>-6458.91</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-7737.74</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-11901.66</v>
+      </c>
+      <c r="I45" s="4">
+        <v>-14296.33</v>
+      </c>
+      <c r="J45" s="4">
+        <v>-15831.59</v>
+      </c>
+      <c r="K45" s="4">
+        <v>-13470.09</v>
+      </c>
+      <c r="L45" s="4">
+        <v>-13453.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>-25235.07</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-33218.329999999994</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-23318.92</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-22793.03</v>
+      </c>
+      <c r="G46" s="4">
+        <v>-31096.480000000003</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-37402.04</v>
+      </c>
+      <c r="I46" s="4">
+        <v>-38643.949999999997</v>
+      </c>
+      <c r="J46" s="4">
+        <v>-35738.54</v>
+      </c>
+      <c r="K46" s="4">
+        <v>-37518.979999999996</v>
+      </c>
+      <c r="L46" s="4">
+        <v>-38772.729999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-2631.67</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-2001.94</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-2194.59</v>
+      </c>
+      <c r="F47" s="4">
+        <v>-2098.2600000000002</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-1809.28</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-4430.2000000000007</v>
+      </c>
+      <c r="I47" s="4">
+        <v>-5156.74</v>
+      </c>
+      <c r="J47" s="4">
+        <v>-3085.6800000000003</v>
+      </c>
+      <c r="K47" s="4">
+        <v>-1841.46</v>
+      </c>
+      <c r="L47" s="4">
+        <v>-8074.3099999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-60120.705000000002</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-78105.204999999987</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-55667.194999999992</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-94798.708750512727</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-65206.482627269535</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-99993.760544428413</v>
+      </c>
+      <c r="I48" s="4">
+        <v>-107258.21058958037</v>
+      </c>
+      <c r="J48" s="4">
+        <v>-94568.535000000003</v>
+      </c>
+      <c r="K48" s="4">
+        <v>-91236.649098143593</v>
+      </c>
+      <c r="L48" s="4">
+        <v>-73850.544999999969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4">
+        <v>-15512.029999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-17862.579999999998</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-13618.909999999998</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-5272.46</v>
+      </c>
+      <c r="G49" s="4">
+        <v>-6366.96</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-10107.709999999999</v>
+      </c>
+      <c r="I49" s="4">
+        <v>-8014.38</v>
+      </c>
+      <c r="J49" s="4">
+        <v>-8715.24</v>
+      </c>
+      <c r="K49" s="4">
+        <v>-12462.349999999999</v>
+      </c>
+      <c r="L49" s="4">
+        <v>-15535.840000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-465</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-5750.78</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>-465</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4">
+        <v>-1800</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-1800</v>
+      </c>
+      <c r="E51" s="4">
+        <v>-2000</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="G51" s="4">
+        <v>-1500</v>
+      </c>
+      <c r="H51" s="4">
+        <v>-4351</v>
+      </c>
+      <c r="I51" s="4">
+        <v>-2640</v>
+      </c>
+      <c r="J51" s="4">
+        <v>-138</v>
+      </c>
+      <c r="K51" s="4">
+        <v>-276</v>
+      </c>
+      <c r="L51" s="4">
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="4">
+        <v>-6792.32</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-7652.880000000001</v>
+      </c>
+      <c r="E52" s="4">
+        <v>-5030.2700000000004</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-4805.0499999999993</v>
+      </c>
+      <c r="G52" s="4">
+        <v>-7381.51</v>
+      </c>
+      <c r="H52" s="4">
+        <v>-8609.2900000000009</v>
+      </c>
+      <c r="I52" s="4">
+        <v>-16941.84</v>
+      </c>
+      <c r="J52" s="4">
+        <v>-7881.4800000000005</v>
+      </c>
+      <c r="K52" s="4">
+        <v>-9853.9500000000007</v>
+      </c>
+      <c r="L52" s="4">
+        <v>-13089.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="4">
+        <v>-8060.78</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-9462.51</v>
+      </c>
+      <c r="E53" s="4">
+        <v>-7200.0899999999992</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-9943.32</v>
+      </c>
+      <c r="G53" s="4">
+        <v>-14161.59</v>
+      </c>
+      <c r="H53" s="4">
+        <v>-19232.14</v>
+      </c>
+      <c r="I53" s="4">
+        <v>-17158.38</v>
+      </c>
+      <c r="J53" s="4">
+        <v>-16187.86</v>
+      </c>
+      <c r="K53" s="4">
+        <v>-16479.739999999998</v>
+      </c>
+      <c r="L53" s="4">
+        <v>-18061.760000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-3246.77</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-5497.63</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-3533.63</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-2519.4699999999998</v>
+      </c>
+      <c r="G54" s="4">
+        <v>-3397.91</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-4573</v>
+      </c>
+      <c r="I54" s="4">
+        <v>-4607.8999999999996</v>
+      </c>
+      <c r="J54" s="4">
+        <v>-4573</v>
+      </c>
+      <c r="K54" s="4">
+        <v>-4573</v>
+      </c>
+      <c r="L54" s="4">
+        <v>-4511.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4">
+        <v>-35876.899999999994</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-48026.38</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-31382.9</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-23540.3</v>
+      </c>
+      <c r="G55" s="4">
+        <v>-32807.97</v>
+      </c>
+      <c r="H55" s="4">
+        <v>-46873.14</v>
+      </c>
+      <c r="I55" s="4">
+        <v>-49362.500000000007</v>
+      </c>
+      <c r="J55" s="4">
+        <v>-37495.58</v>
+      </c>
+      <c r="K55" s="4">
+        <v>-44110.039999999994</v>
+      </c>
+      <c r="L55" s="4">
+        <v>-51694.360000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="4">
+        <v>-6257.8899999999994</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-7061.42</v>
+      </c>
+      <c r="E56" s="4">
+        <v>-5916.03</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-4244.74</v>
+      </c>
+      <c r="G56" s="4">
+        <v>-6792.9</v>
+      </c>
+      <c r="H56" s="4">
+        <v>-9178.2800000000007</v>
+      </c>
+      <c r="I56" s="4">
+        <v>-16610.349999999999</v>
+      </c>
+      <c r="J56" s="4">
+        <v>-15489.17</v>
+      </c>
+      <c r="K56" s="4">
+        <v>-23510.69</v>
+      </c>
+      <c r="L56" s="4">
+        <v>-20412.510000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>-630</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="4">
+        <v>911.1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-3654.9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>211.10000000000002</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="4">
+        <v>-128</v>
+      </c>
+      <c r="J58" s="4">
+        <v>-80</v>
+      </c>
+      <c r="K58" s="4">
+        <v>390.1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>-704.59999999999991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="4">
+        <v>-5346.7899999999991</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-10716.32</v>
+      </c>
+      <c r="E60" s="4">
+        <v>-5704.9299999999994</v>
+      </c>
+      <c r="F60" s="4">
+        <v>-4244.74</v>
+      </c>
+      <c r="G60" s="4">
+        <v>-6792.9</v>
+      </c>
+      <c r="H60" s="4">
+        <v>-7778.2800000000007</v>
+      </c>
+      <c r="I60" s="4">
+        <v>-16738.349999999999</v>
+      </c>
+      <c r="J60" s="4">
+        <v>-16199.17</v>
+      </c>
+      <c r="K60" s="4">
+        <v>-23120.59</v>
+      </c>
+      <c r="L60" s="4">
+        <v>-21417.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="4">
+        <v>-101344.39499999999</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-136847.905</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-92755.024999999994</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-122583.74875051274</v>
+      </c>
+      <c r="G61" s="4">
+        <v>-104807.35262726953</v>
+      </c>
+      <c r="H61" s="4">
+        <v>-154645.18054442841</v>
+      </c>
+      <c r="I61" s="4">
+        <v>-173359.06058958039</v>
+      </c>
+      <c r="J61" s="4">
+        <v>-148263.285</v>
+      </c>
+      <c r="K61" s="4">
+        <v>-158467.2790981436</v>
+      </c>
+      <c r="L61" s="4">
+        <v>-146962.01499999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-89167.274999999994</v>
+      </c>
+      <c r="E62" s="4">
+        <v>-78945.694999999992</v>
+      </c>
+      <c r="F62" s="4">
+        <v>-105958.74875051274</v>
+      </c>
+      <c r="G62" s="4">
+        <v>-75954.852627269531</v>
+      </c>
+      <c r="H62" s="4">
+        <v>-62563.500544428418</v>
+      </c>
+      <c r="I62" s="4">
+        <v>-72653.350589580383</v>
+      </c>
+      <c r="J62" s="4">
+        <v>-90421.595000000001</v>
+      </c>
+      <c r="K62" s="4">
+        <v>-60018.949098143596</v>
+      </c>
+      <c r="L62" s="4">
+        <v>-50295.16499999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="4">
+        <v>-1.7670817018206959</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-1.8700943129316872</v>
+      </c>
+      <c r="E63" s="4">
+        <v>-5.7168374569946545</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-6.3734585714594125</v>
+      </c>
+      <c r="G63" s="4">
+        <v>-2.6325224028167242</v>
+      </c>
+      <c r="H63" s="4">
+        <v>-0.67943482943000633</v>
+      </c>
+      <c r="I63" s="4">
+        <v>-0.72144221603303704</v>
+      </c>
+      <c r="J63" s="4">
+        <v>-1.5632599082080765</v>
+      </c>
+      <c r="K63" s="4">
+        <v>-0.60964923527035542</v>
+      </c>
+      <c r="L63" s="4">
+        <v>-0.52029382358067888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-89167.274999999994</v>
+      </c>
+      <c r="E66" s="4">
+        <v>-78945.694999999992</v>
+      </c>
+      <c r="F66" s="4">
+        <v>-105958.74875051274</v>
+      </c>
+      <c r="G66" s="4">
+        <v>-75954.852627269531</v>
+      </c>
+      <c r="H66" s="4">
+        <v>-62563.500544428418</v>
+      </c>
+      <c r="I66" s="4">
+        <v>-72653.350589580383</v>
+      </c>
+      <c r="J66" s="4">
+        <v>-90421.595000000001</v>
+      </c>
+      <c r="K66" s="4">
+        <v>-60018.949098143596</v>
+      </c>
+      <c r="L66" s="4">
+        <v>-50295.16499999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-89167.274999999994</v>
+      </c>
+      <c r="E70" s="4">
+        <v>-78945.694999999992</v>
+      </c>
+      <c r="F70" s="4">
+        <v>-105958.74875051274</v>
+      </c>
+      <c r="G70" s="4">
+        <v>-75954.852627269531</v>
+      </c>
+      <c r="H70" s="4">
+        <v>-62563.500544428418</v>
+      </c>
+      <c r="I70" s="4">
+        <v>-72653.350589580383</v>
+      </c>
+      <c r="J70" s="4">
+        <v>-90421.595000000001</v>
+      </c>
+      <c r="K70" s="4">
+        <v>-60018.949098143596</v>
+      </c>
+      <c r="L70" s="4">
+        <v>-50295.16499999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>30.46</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>40</v>
+      </c>
+      <c r="I71" s="4">
+        <v>780</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>83.57</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="4">
+        <v>67688.600000000006</v>
+      </c>
+      <c r="D72" s="4">
+        <v>7872</v>
+      </c>
+      <c r="E72" s="4">
+        <v>47606.759999999995</v>
+      </c>
+      <c r="F72" s="4">
+        <v>25958.6</v>
+      </c>
+      <c r="G72" s="4">
+        <v>28473</v>
+      </c>
+      <c r="H72" s="4">
+        <v>94415.14</v>
+      </c>
+      <c r="I72" s="4">
+        <v>131232.01</v>
+      </c>
+      <c r="J72" s="4">
+        <v>51035.39</v>
+      </c>
+      <c r="K72" s="4">
+        <v>130482.33999999994</v>
+      </c>
+      <c r="L72" s="4">
+        <v>128582.39999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>150000</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>150000</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>600</v>
+      </c>
+      <c r="H74" s="4">
+        <v>24402.93</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="4">
+        <v>67688.600000000006</v>
+      </c>
+      <c r="D75" s="4">
+        <v>7872</v>
+      </c>
+      <c r="E75" s="4">
+        <v>47606.759999999995</v>
+      </c>
+      <c r="F75" s="4">
+        <v>25958.6</v>
+      </c>
+      <c r="G75" s="4">
+        <v>179073</v>
+      </c>
+      <c r="H75" s="4">
+        <v>118818.07</v>
+      </c>
+      <c r="I75" s="4">
+        <v>281232.01</v>
+      </c>
+      <c r="J75" s="4">
+        <v>51035.39</v>
+      </c>
+      <c r="K75" s="4">
+        <v>130482.33999999994</v>
+      </c>
+      <c r="L75" s="4">
+        <v>128582.39999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="4">
+        <v>-61209.630000000012</v>
+      </c>
+      <c r="D76" s="4">
+        <v>-53031.880000000041</v>
+      </c>
+      <c r="E76" s="4">
+        <v>-45063.850000000013</v>
+      </c>
+      <c r="F76" s="4">
+        <v>-63198.270000000011</v>
+      </c>
+      <c r="G76" s="4">
+        <v>-48671.999999999978</v>
+      </c>
+      <c r="H76" s="4">
+        <v>-65281.400000000023</v>
+      </c>
+      <c r="I76" s="4">
+        <v>-84566.100000000049</v>
+      </c>
+      <c r="J76" s="4">
+        <v>-40188.920000000006</v>
+      </c>
+      <c r="K76" s="4">
+        <v>-48726.719999999979</v>
+      </c>
+      <c r="L76" s="4">
+        <v>-68063.469999999987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="4">
+        <v>-29692.510000000006</v>
+      </c>
+      <c r="D78" s="4">
+        <v>-39485.369999999995</v>
+      </c>
+      <c r="E78" s="4">
+        <v>-35289.810000000005</v>
+      </c>
+      <c r="F78" s="4">
+        <v>-34628.449999999997</v>
+      </c>
+      <c r="G78" s="4">
+        <v>-2665.58</v>
+      </c>
+      <c r="H78" s="4">
+        <v>-84071.550000000017</v>
+      </c>
+      <c r="I78" s="4">
+        <v>-62855.639999999992</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>-53506.69</v>
+      </c>
+      <c r="L78" s="4">
+        <v>-58320.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="4">
+        <v>-37558.11</v>
+      </c>
+      <c r="D79" s="4">
+        <v>-31201.7</v>
+      </c>
+      <c r="E79" s="4">
+        <v>-6702.79</v>
+      </c>
+      <c r="F79" s="4">
+        <v>-630</v>
+      </c>
+      <c r="G79" s="4">
+        <v>-30895.599999999999</v>
+      </c>
+      <c r="H79" s="4">
+        <v>-731.64999999999986</v>
+      </c>
+      <c r="I79" s="4">
+        <v>-35500.1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>-55910.19</v>
+      </c>
+      <c r="K79" s="4">
+        <v>-68502.740000000005</v>
+      </c>
+      <c r="L79" s="4">
+        <v>-65601.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <v>-8.02</v>
+      </c>
+      <c r="J80" s="4">
+        <v>-7.89</v>
+      </c>
+      <c r="K80" s="4">
+        <v>-7.82</v>
+      </c>
+      <c r="L80" s="4">
+        <v>-7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="4">
+        <v>-7101</v>
+      </c>
+      <c r="D82" s="4">
+        <v>-13444</v>
+      </c>
+      <c r="E82" s="4">
+        <v>-3417</v>
+      </c>
+      <c r="F82" s="4">
+        <v>147857</v>
+      </c>
+      <c r="G82" s="4">
+        <v>-28286</v>
+      </c>
+      <c r="H82" s="4">
+        <v>-6292</v>
+      </c>
+      <c r="I82" s="4">
+        <v>-17477</v>
+      </c>
+      <c r="J82" s="4">
+        <v>-15172</v>
+      </c>
+      <c r="K82" s="4">
+        <v>-12844</v>
+      </c>
+      <c r="L82" s="4">
+        <v>-17768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0</v>
+      </c>
+      <c r="D84" s="4">
+        <v>-14039.939999999999</v>
+      </c>
+      <c r="E84" s="4">
+        <v>-1107</v>
+      </c>
+      <c r="F84" s="4">
+        <v>-99.9</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="I84" s="4">
+        <v>-6000</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>-1357.1100000000001</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="4">
+        <v>-135561.25</v>
+      </c>
+      <c r="D85" s="4">
+        <v>-151202.89000000001</v>
+      </c>
+      <c r="E85" s="4">
+        <v>-91580.450000000012</v>
+      </c>
+      <c r="F85" s="4">
+        <v>49300.38</v>
+      </c>
+      <c r="G85" s="4">
+        <v>-110519.17999999998</v>
+      </c>
+      <c r="H85" s="4">
+        <v>-156445.50000000003</v>
+      </c>
+      <c r="I85" s="4">
+        <v>-206406.86000000004</v>
+      </c>
+      <c r="J85" s="4">
+        <v>-111279.00000000001</v>
+      </c>
+      <c r="K85" s="4">
+        <v>-184945.07999999996</v>
+      </c>
+      <c r="L85" s="4">
+        <v>-209761.69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="4">
+        <v>18437.41</v>
+      </c>
+      <c r="D86" s="4">
+        <v>280000</v>
+      </c>
+      <c r="E86" s="4">
+        <v>7662.5999999999985</v>
+      </c>
+      <c r="F86" s="4">
+        <v>26586.509999999991</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>-62.389999999999418</v>
+      </c>
+      <c r="I86" s="4">
+        <v>-1015</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>-126.13999999999942</v>
+      </c>
+      <c r="L86" s="4">
+        <v>-521.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="4">
+        <v>-1440</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>30.46</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>40</v>
+      </c>
+      <c r="I87" s="4">
+        <v>678.6</v>
+      </c>
+      <c r="J87" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="K87" s="4">
+        <v>26.049999999999994</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1476.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="4">
+        <v>-50875.239999999991</v>
+      </c>
+      <c r="D88" s="4">
+        <v>136669.10999999999</v>
+      </c>
+      <c r="E88" s="4">
+        <v>-36311.090000000018</v>
+      </c>
+      <c r="F88" s="4">
+        <v>101875.95</v>
+      </c>
+      <c r="G88" s="4">
+        <v>68553.820000000022</v>
+      </c>
+      <c r="H88" s="4">
+        <v>-37649.820000000022</v>
+      </c>
+      <c r="I88" s="4">
+        <v>74488.749999999971</v>
+      </c>
+      <c r="J88" s="4">
+        <v>-61243.610000000015</v>
+      </c>
+      <c r="K88" s="4">
+        <v>-54562.830000000016</v>
+      </c>
+      <c r="L88" s="4">
+        <v>-80224.890000000029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="D89" s="4">
+        <v>222148.59000000008</v>
+      </c>
+      <c r="E89" s="4">
+        <v>358817.70000000007</v>
+      </c>
+      <c r="F89" s="4">
+        <v>322506.61000000004</v>
+      </c>
+      <c r="G89" s="4">
+        <v>424382.56000000006</v>
+      </c>
+      <c r="H89" s="4">
+        <v>492936.38000000006</v>
+      </c>
+      <c r="I89" s="4">
+        <v>455286.56000000006</v>
+      </c>
+      <c r="J89" s="4">
+        <v>529775.31000000006</v>
+      </c>
+      <c r="K89" s="4">
+        <v>468531.70000000007</v>
+      </c>
+      <c r="L89" s="4">
+        <v>413968.87000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="4">
+        <v>222148.59000000008</v>
+      </c>
+      <c r="D90" s="4">
+        <v>358817.70000000007</v>
+      </c>
+      <c r="E90" s="4">
+        <v>322506.61000000004</v>
+      </c>
+      <c r="F90" s="4">
+        <v>424382.56000000006</v>
+      </c>
+      <c r="G90" s="4">
+        <v>492936.38000000006</v>
+      </c>
+      <c r="H90" s="4">
+        <v>455286.56000000006</v>
+      </c>
+      <c r="I90" s="4">
+        <v>529775.31000000006</v>
+      </c>
+      <c r="J90" s="4">
+        <v>468531.70000000007</v>
+      </c>
+      <c r="K90" s="4">
+        <v>413968.87000000005</v>
+      </c>
+      <c r="L90" s="4">
+        <v>333743.98000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="4">
+        <v>-64719.384999999995</v>
+      </c>
+      <c r="D91" s="4">
+        <v>-153886.65999999997</v>
+      </c>
+      <c r="E91" s="4">
+        <v>-232832.35499999995</v>
+      </c>
+      <c r="F91" s="4">
+        <v>-338791.1037505127</v>
+      </c>
+      <c r="G91" s="4">
+        <v>-414745.95637778228</v>
+      </c>
+      <c r="H91" s="4">
+        <v>-477309.45692221064</v>
+      </c>
+      <c r="I91" s="4">
+        <v>-549962.807511791</v>
+      </c>
+      <c r="J91" s="4">
+        <v>-640384.40251179086</v>
+      </c>
+      <c r="K91" s="4">
+        <v>-700403.3516099347</v>
+      </c>
+      <c r="L91" s="4">
+        <v>-750698.51660993428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="4">
+        <v>22331.540000000008</v>
+      </c>
+      <c r="D96" s="4">
+        <v>-27756.01999999999</v>
+      </c>
+      <c r="E96" s="4">
+        <v>5699.5400000000081</v>
+      </c>
+      <c r="F96" s="4">
+        <v>11708.140000000007</v>
+      </c>
+      <c r="G96" s="4">
+        <v>5558.1400000000067</v>
+      </c>
+      <c r="H96" s="4">
+        <v>-13301.859999999993</v>
+      </c>
+      <c r="I96" s="4">
+        <v>930.14000000000669</v>
+      </c>
+      <c r="J96" s="4">
+        <v>-16957.860000000008</v>
+      </c>
+      <c r="K96" s="4">
+        <v>-5456.6300000000119</v>
+      </c>
+      <c r="L96" s="4">
+        <v>8531.3500000000713</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="4">
+        <v>-12710.365000000003</v>
+      </c>
+      <c r="D97" s="4">
+        <v>9443.6599999999817</v>
+      </c>
+      <c r="E97" s="4">
+        <v>6719.2749999999651</v>
+      </c>
+      <c r="F97" s="4">
+        <v>25513.953750512643</v>
+      </c>
+      <c r="G97" s="4">
+        <v>13863.950788394242</v>
+      </c>
+      <c r="H97" s="4">
+        <v>20152.186296335654</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1024.6961654554252</v>
+      </c>
+      <c r="J97" s="4">
+        <v>16864.671165455409</v>
+      </c>
+      <c r="K97" s="4">
+        <v>26277.772177647377</v>
+      </c>
+      <c r="L97" s="4">
+        <v>-9519.9428223525974</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="4">
+        <v>-14214.440000000061</v>
+      </c>
+      <c r="D98" s="4">
+        <v>-26404.580000000016</v>
+      </c>
+      <c r="E98" s="4">
+        <v>-21056.750000000058</v>
+      </c>
+      <c r="F98" s="4">
+        <v>135488.05999999994</v>
+      </c>
+      <c r="G98" s="4">
+        <v>147796.73558938794</v>
+      </c>
+      <c r="H98" s="4">
+        <v>161010.54062587491</v>
+      </c>
+      <c r="I98" s="4">
+        <v>170063.13134633546</v>
+      </c>
+      <c r="J98" s="4">
+        <v>201289.14134633544</v>
+      </c>
+      <c r="K98" s="4">
+        <v>187314.17943228711</v>
+      </c>
+      <c r="L98" s="4">
+        <v>179716.03943228707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="4">
+        <v>-4593.2650000000558</v>
+      </c>
+      <c r="D99" s="4">
+        <v>-44716.940000000024</v>
+      </c>
+      <c r="E99" s="4">
+        <v>-8637.935000000085</v>
+      </c>
+      <c r="F99" s="4">
+        <v>172710.15375051257</v>
+      </c>
+      <c r="G99" s="4">
+        <v>167218.82637778218</v>
+      </c>
+      <c r="H99" s="4">
+        <v>167860.86692221058</v>
+      </c>
+      <c r="I99" s="4">
+        <v>172017.96751179089</v>
+      </c>
+      <c r="J99" s="4">
+        <v>201195.95251179085</v>
+      </c>
+      <c r="K99" s="4">
+        <v>208135.32160993447</v>
+      </c>
+      <c r="L99" s="4">
+        <v>178727.44660993456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="4">
+        <v>-69312.650000000052</v>
+      </c>
+      <c r="D100" s="4">
+        <v>-198603.6</v>
+      </c>
+      <c r="E100" s="4">
+        <v>-241470.29000000004</v>
+      </c>
+      <c r="F100" s="4">
+        <v>-166080.95000000013</v>
+      </c>
+      <c r="G100" s="4">
+        <v>-247527.13000000006</v>
+      </c>
+      <c r="H100" s="4">
+        <v>-309448.59000000008</v>
+      </c>
+      <c r="I100" s="4">
+        <v>-377944.84000000014</v>
+      </c>
+      <c r="J100" s="4">
+        <v>-439188.45000000007</v>
+      </c>
+      <c r="K100" s="4">
+        <v>-492268.03000000026</v>
+      </c>
+      <c r="L100" s="4">
+        <v>-571971.06999999972</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <v>-14039.939999999997</v>
+      </c>
+      <c r="E101" s="4">
+        <v>-15146.939999999997</v>
+      </c>
+      <c r="F101" s="4">
+        <v>-15246.839999999998</v>
+      </c>
+      <c r="G101" s="4">
+        <v>-15246.839999999998</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-15315.74</v>
+      </c>
+      <c r="I101" s="4">
+        <v>-21315.739999999998</v>
+      </c>
+      <c r="J101" s="4">
+        <v>-21315.739999999998</v>
+      </c>
+      <c r="K101" s="4">
+        <v>-22672.85</v>
+      </c>
+      <c r="L101" s="4">
+        <v>-22672.85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>-14039.939999999997</v>
+      </c>
+      <c r="E103" s="4">
+        <v>-15146.939999999997</v>
+      </c>
+      <c r="F103" s="4">
+        <v>-15246.839999999998</v>
+      </c>
+      <c r="G103" s="4">
+        <v>-15246.839999999998</v>
+      </c>
+      <c r="H103" s="4">
+        <v>-15315.74</v>
+      </c>
+      <c r="I103" s="4">
+        <v>-21315.739999999998</v>
+      </c>
+      <c r="J103" s="4">
+        <v>-21315.739999999998</v>
+      </c>
+      <c r="K103" s="4">
+        <v>-22672.85</v>
+      </c>
+      <c r="L103" s="4">
+        <v>-22672.85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="4">
+        <v>-69312.650000000052</v>
+      </c>
+      <c r="D104" s="4">
+        <v>-212643.54</v>
+      </c>
+      <c r="E104" s="4">
+        <v>-256617.23000000004</v>
+      </c>
+      <c r="F104" s="4">
+        <v>-181327.79000000012</v>
+      </c>
+      <c r="G104" s="4">
+        <v>-262773.97000000009</v>
+      </c>
+      <c r="H104" s="4">
+        <v>-324764.33000000007</v>
+      </c>
+      <c r="I104" s="4">
+        <v>-399260.58000000013</v>
+      </c>
+      <c r="J104" s="4">
+        <v>-460504.19000000006</v>
+      </c>
+      <c r="K104" s="4">
+        <v>-514940.88000000024</v>
+      </c>
+      <c r="L104" s="4">
+        <v>-594643.91999999969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0</v>
+      </c>
+      <c r="L105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="4">
+        <v>18437.410000000033</v>
+      </c>
+      <c r="D107" s="4">
+        <v>298437.40999999992</v>
+      </c>
+      <c r="E107" s="4">
+        <v>306100.01</v>
+      </c>
+      <c r="F107" s="4">
+        <v>332686.52</v>
+      </c>
+      <c r="G107" s="4">
+        <v>482686.52</v>
+      </c>
+      <c r="H107" s="4">
+        <v>507027.06000000006</v>
+      </c>
+      <c r="I107" s="4">
+        <v>656012.06000000006</v>
+      </c>
+      <c r="J107" s="4">
+        <v>656012.06000000006</v>
+      </c>
+      <c r="K107" s="4">
+        <v>655885.92000000016</v>
+      </c>
+      <c r="L107" s="4">
+        <v>655364.07000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="4">
+        <v>18437.410000000033</v>
+      </c>
+      <c r="D108" s="4">
+        <v>298437.40999999992</v>
+      </c>
+      <c r="E108" s="4">
+        <v>306100.01</v>
+      </c>
+      <c r="F108" s="4">
+        <v>332686.52</v>
+      </c>
+      <c r="G108" s="4">
+        <v>482686.52</v>
+      </c>
+      <c r="H108" s="4">
+        <v>507027.06000000006</v>
+      </c>
+      <c r="I108" s="4">
+        <v>656012.06000000006</v>
+      </c>
+      <c r="J108" s="4">
+        <v>656012.06000000006</v>
+      </c>
+      <c r="K108" s="4">
+        <v>655885.92000000016</v>
+      </c>
+      <c r="L108" s="4">
+        <v>655364.07000000007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="4">
+        <v>-50875.24000000002</v>
+      </c>
+      <c r="D109" s="4">
+        <v>85793.869999999908</v>
+      </c>
+      <c r="E109" s="4">
+        <v>49482.77999999997</v>
+      </c>
+      <c r="F109" s="4">
+        <v>151358.72999999989</v>
+      </c>
+      <c r="G109" s="4">
+        <v>219912.54999999993</v>
+      </c>
+      <c r="H109" s="4">
+        <v>182262.72999999998</v>
+      </c>
+      <c r="I109" s="4">
+        <v>256751.47999999992</v>
+      </c>
+      <c r="J109" s="4">
+        <v>195507.87</v>
+      </c>
+      <c r="K109" s="4">
+        <v>140945.03999999992</v>
+      </c>
+      <c r="L109" s="4">
+        <v>60720.150000000373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="D110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="E110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="F110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="G110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="H110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="I110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="J110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="K110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="L110" s="4">
+        <v>273023.83000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="4">
+        <v>222148.59000000005</v>
+      </c>
+      <c r="D111" s="4">
+        <v>358817.69999999995</v>
+      </c>
+      <c r="E111" s="4">
+        <v>322506.61000000004</v>
+      </c>
+      <c r="F111" s="4">
+        <v>424382.55999999994</v>
+      </c>
+      <c r="G111" s="4">
+        <v>492936.38</v>
+      </c>
+      <c r="H111" s="4">
+        <v>455286.56000000006</v>
+      </c>
+      <c r="I111" s="4">
+        <v>529775.31000000006</v>
+      </c>
+      <c r="J111" s="4">
+        <v>468531.70000000007</v>
+      </c>
+      <c r="K111" s="4">
+        <v>413968.87</v>
+      </c>
+      <c r="L111" s="4">
+        <v>333743.98000000045</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="3">
+        <v>14066.47</v>
+      </c>
+      <c r="C112" s="4">
+        <v>14066.47</v>
+      </c>
+      <c r="D112" s="4">
+        <v>28106.409999999996</v>
+      </c>
+      <c r="E112" s="4">
+        <v>29213.409999999996</v>
+      </c>
+      <c r="F112" s="4">
+        <v>29313.309999999998</v>
+      </c>
+      <c r="G112" s="4">
+        <v>29313.309999999998</v>
+      </c>
+      <c r="H112" s="4">
+        <v>29382.21</v>
+      </c>
+      <c r="I112" s="4">
+        <v>35382.21</v>
+      </c>
+      <c r="J112" s="4">
+        <v>35382.21</v>
+      </c>
+      <c r="K112" s="4">
+        <v>36739.32</v>
+      </c>
+      <c r="L112" s="4">
+        <v>36739.32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="3">
+        <v>23600.599999999977</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1269.0599999999686</v>
+      </c>
+      <c r="D114" s="4">
+        <v>51356.619999999966</v>
+      </c>
+      <c r="E114" s="4">
+        <v>17901.059999999969</v>
+      </c>
+      <c r="F114" s="4">
+        <v>11892.45999999997</v>
+      </c>
+      <c r="G114" s="4">
+        <v>18042.45999999997</v>
+      </c>
+      <c r="H114" s="4">
+        <v>36902.45999999997</v>
+      </c>
+      <c r="I114" s="4">
+        <v>22670.45999999997</v>
+      </c>
+      <c r="J114" s="4">
+        <v>40558.459999999985</v>
+      </c>
+      <c r="K114" s="4">
+        <v>29057.229999999989</v>
+      </c>
+      <c r="L114" s="4">
+        <v>15069.249999999905</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="3">
+        <v>-14707.59000000004</v>
+      </c>
+      <c r="C115" s="4">
+        <v>-1997.2250000000367</v>
+      </c>
+      <c r="D115" s="4">
+        <v>-24151.250000000022</v>
+      </c>
+      <c r="E115" s="4">
+        <v>-21426.865000000005</v>
+      </c>
+      <c r="F115" s="4">
+        <v>-40221.543750512683</v>
+      </c>
+      <c r="G115" s="4">
+        <v>-28571.540788394283</v>
+      </c>
+      <c r="H115" s="4">
+        <v>-34859.776296335694</v>
+      </c>
+      <c r="I115" s="4">
+        <v>-15732.286165455465</v>
+      </c>
+      <c r="J115" s="4">
+        <v>-31572.261165455449</v>
+      </c>
+      <c r="K115" s="4">
+        <v>-40985.362177647417</v>
+      </c>
+      <c r="L115" s="4">
+        <v>-5187.6471776474427</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="3">
+        <v>8893.0099999999366</v>
+      </c>
+      <c r="C116" s="4">
+        <v>-728.16500000006818</v>
+      </c>
+      <c r="D116" s="4">
+        <v>27205.369999999944</v>
+      </c>
+      <c r="E116" s="4">
+        <v>-3525.8050000000367</v>
+      </c>
+      <c r="F116" s="4">
+        <v>-28329.083750512713</v>
+      </c>
+      <c r="G116" s="4">
+        <v>-10529.080788394313</v>
+      </c>
+      <c r="H116" s="4">
+        <v>2042.6837036642755</v>
+      </c>
+      <c r="I116" s="4">
+        <v>6938.1738345445046</v>
+      </c>
+      <c r="J116" s="4">
+        <v>8986.1988345445352</v>
+      </c>
+      <c r="K116" s="4">
+        <v>-11928.132177647429</v>
+      </c>
+      <c r="L116" s="4">
+        <v>9881.6028223524627</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" s="3">
+        <v>104760.60999999991</v>
+      </c>
+      <c r="C117" s="4">
+        <v>117535.04999999996</v>
+      </c>
+      <c r="D117" s="4">
+        <v>129725.18999999994</v>
+      </c>
+      <c r="E117" s="4">
+        <v>124377.35999999996</v>
+      </c>
+      <c r="F117" s="4">
+        <v>-32136.990000000034</v>
+      </c>
+      <c r="G117" s="4">
+        <v>-44445.665589388016</v>
+      </c>
+      <c r="H117" s="4">
+        <v>-57619.470625875008</v>
+      </c>
+      <c r="I117" s="4">
+        <v>-65993.461346335549</v>
+      </c>
+      <c r="J117" s="4">
+        <v>-98219.471346335529</v>
+      </c>
+      <c r="K117" s="4">
+        <v>-84218.459432287185</v>
+      </c>
+      <c r="L117" s="4">
+        <v>-75144.069432287157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="3">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="C118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="D118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="E118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="F118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="G118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="H118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="I118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="J118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="K118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+      <c r="L118" s="4">
+        <v>22749.16999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1440</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1440</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1440</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1409.54</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1409.54</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1369.54</v>
+      </c>
+      <c r="I119" s="4">
+        <v>690.93999999999994</v>
+      </c>
+      <c r="J119" s="4">
+        <v>1690.94</v>
+      </c>
+      <c r="K119" s="4">
+        <v>1664.89</v>
+      </c>
+      <c r="L119" s="4">
+        <v>188.6400000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="3">
+        <v>127509.77999999985</v>
+      </c>
+      <c r="C120" s="4">
+        <v>141724.21999999991</v>
+      </c>
+      <c r="D120" s="4">
+        <v>153914.35999999987</v>
+      </c>
+      <c r="E120" s="4">
+        <v>148566.52999999991</v>
+      </c>
+      <c r="F120" s="4">
+        <v>-7978.2800000000943</v>
+      </c>
+      <c r="G120" s="4">
+        <v>-20286.955589388075</v>
+      </c>
+      <c r="H120" s="4">
+        <v>-33500.760625875067</v>
+      </c>
+      <c r="I120" s="4">
+        <v>-42553.351346335607</v>
+      </c>
+      <c r="J120" s="4">
+        <v>-73779.361346335587</v>
+      </c>
+      <c r="K120" s="4">
+        <v>-59804.399432287246</v>
+      </c>
+      <c r="L120" s="4">
+        <v>-52206.259432287217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="3">
+        <v>136402.7899999998</v>
+      </c>
+      <c r="C121" s="4">
+        <v>140996.05499999985</v>
+      </c>
+      <c r="D121" s="4">
+        <v>181119.72999999981</v>
+      </c>
+      <c r="E121" s="4">
+        <v>145040.72499999986</v>
+      </c>
+      <c r="F121" s="4">
+        <v>-36307.363750512806</v>
+      </c>
+      <c r="G121" s="4">
+        <v>-30816.036377782388</v>
+      </c>
+      <c r="H121" s="4">
+        <v>-31458.076922210792</v>
+      </c>
+      <c r="I121" s="4">
+        <v>-35615.177511791102</v>
+      </c>
+      <c r="J121" s="4">
+        <v>-64793.162511791052</v>
+      </c>
+      <c r="K121" s="4">
+        <v>-71732.531609934667</v>
+      </c>
+      <c r="L121" s="4">
+        <v>-42324.656609934755</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="3">
+        <v>-1025556.1700000002</v>
+      </c>
+      <c r="C122" s="4">
+        <v>-1043993.5800000002</v>
+      </c>
+      <c r="D122" s="4">
+        <v>-1323993.58</v>
+      </c>
+      <c r="E122" s="4">
+        <v>-1331656.1800000002</v>
+      </c>
+      <c r="F122" s="4">
+        <v>-1358242.6900000002</v>
+      </c>
+      <c r="G122" s="4">
+        <v>-1508242.6900000002</v>
+      </c>
+      <c r="H122" s="4">
+        <v>-1532583.2300000002</v>
+      </c>
+      <c r="I122" s="4">
+        <v>-1681568.2300000002</v>
+      </c>
+      <c r="J122" s="4">
+        <v>-1681568.2300000002</v>
+      </c>
+      <c r="K122" s="4">
+        <v>-1681442.0900000003</v>
+      </c>
+      <c r="L122" s="4">
+        <v>-1680920.2400000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="3">
+        <v>273023.83000000007</v>
+      </c>
+      <c r="C123" s="4">
+        <v>222148.59000000008</v>
+      </c>
+      <c r="D123" s="4">
+        <v>358817.70000000007</v>
+      </c>
+      <c r="E123" s="4">
+        <v>322506.61000000004</v>
+      </c>
+      <c r="F123" s="4">
+        <v>424382.56000000006</v>
+      </c>
+      <c r="G123" s="4">
+        <v>492936.38000000006</v>
+      </c>
+      <c r="H123" s="4">
+        <v>455286.56000000006</v>
+      </c>
+      <c r="I123" s="4">
+        <v>529775.31000000006</v>
+      </c>
+      <c r="J123" s="4">
+        <v>468531.70000000007</v>
+      </c>
+      <c r="K123" s="4">
+        <v>413968.87000000005</v>
+      </c>
+      <c r="L123" s="4">
+        <v>333743.98000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="3">
+        <v>-752532.34000000008</v>
+      </c>
+      <c r="C124" s="4">
+        <v>-821844.99000000011</v>
+      </c>
+      <c r="D124" s="4">
+        <v>-965175.88</v>
+      </c>
+      <c r="E124" s="4">
+        <v>-1009149.5700000001</v>
+      </c>
+      <c r="F124" s="4">
+        <v>-933860.13000000012</v>
+      </c>
+      <c r="G124" s="4">
+        <v>-1015306.31</v>
+      </c>
+      <c r="H124" s="4">
+        <v>-1077296.6700000002</v>
+      </c>
+      <c r="I124" s="4">
+        <v>-1151792.9200000002</v>
+      </c>
+      <c r="J124" s="4">
+        <v>-1213036.5300000003</v>
+      </c>
+      <c r="K124" s="4">
+        <v>-1267473.2200000002</v>
+      </c>
+      <c r="L124" s="4">
+        <v>-1347176.2600000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="C125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="D125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="E125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="F125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="G125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="H125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="I125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="J125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="K125" s="4">
+        <v>-26300</v>
+      </c>
+      <c r="L125" s="4">
+        <v>-26300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="3">
+        <v>-628363.08000000031</v>
+      </c>
+      <c r="C126" s="4">
+        <v>-693082.46500000032</v>
+      </c>
+      <c r="D126" s="4">
+        <v>-782249.74000000011</v>
+      </c>
+      <c r="E126" s="4">
+        <v>-861195.43500000017</v>
+      </c>
+      <c r="F126" s="4">
+        <v>-967154.18375051301</v>
+      </c>
+      <c r="G126" s="4">
+        <v>-1043109.0363777825</v>
+      </c>
+      <c r="H126" s="4">
+        <v>-1105672.5369222111</v>
+      </c>
+      <c r="I126" s="4">
+        <v>-1178325.8875117912</v>
+      </c>
+      <c r="J126" s="4">
+        <v>-1268747.4825117914</v>
+      </c>
+      <c r="K126" s="4">
+        <v>-1328766.4316099349</v>
+      </c>
+      <c r="L126" s="4">
+        <v>-1379061.5966099349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="3">
+        <v>-628363.07999999891</v>
+      </c>
+      <c r="C127" s="4">
+        <v>-693082.46499999892</v>
+      </c>
+      <c r="D127" s="4">
+        <v>-782249.73999999894</v>
+      </c>
+      <c r="E127" s="4">
+        <v>-861195.43499999889</v>
+      </c>
+      <c r="F127" s="4">
+        <v>-967154.18375051161</v>
+      </c>
+      <c r="G127" s="4">
+        <v>-1043109.0363777812</v>
+      </c>
+      <c r="H127" s="4">
+        <v>-1105672.5369222097</v>
+      </c>
+      <c r="I127" s="4">
+        <v>-1178325.88751179</v>
+      </c>
+      <c r="J127" s="4">
+        <v>-1268747.48251179</v>
+      </c>
+      <c r="K127" s="4">
+        <v>-1328766.4316099337</v>
+      </c>
+      <c r="L127" s="4">
+        <v>-1379061.5966099338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>33.091737762794438</v>
+      </c>
+      <c r="F128" s="4">
+        <v>17.883398496240559</v>
+      </c>
+      <c r="G128" s="4">
+        <v>16.154471305201717</v>
+      </c>
+      <c r="H128" s="4">
+        <v>9.7733155105366727</v>
+      </c>
+      <c r="I128" s="4">
+        <v>6.0428573374278391</v>
+      </c>
+      <c r="J128" s="4">
+        <v>18.242167203465453</v>
+      </c>
+      <c r="K128" s="4">
+        <v>7.3265176943948758</v>
+      </c>
+      <c r="L128" s="4">
+        <v>4.0769525767042945</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>14.743039540512218</v>
+      </c>
+      <c r="F129" s="4">
+        <v>14.422326766012153</v>
+      </c>
+      <c r="G129" s="4">
+        <v>22.759773136720582</v>
+      </c>
+      <c r="H129" s="4">
+        <v>14.166137426166884</v>
+      </c>
+      <c r="I129" s="4">
+        <v>7.238344134698929</v>
+      </c>
+      <c r="J129" s="4">
+        <v>16.623573107709017</v>
+      </c>
+      <c r="K129" s="4">
+        <v>19.736607536004655</v>
+      </c>
+      <c r="L129" s="4">
+        <v>4.5586378043402904</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3">
+        <v>38456.260499999997</v>
+      </c>
+      <c r="C130" s="4">
+        <v>77490.453104999993</v>
+      </c>
+      <c r="D130" s="4">
+        <v>92074.687636050003</v>
+      </c>
+      <c r="E130" s="4">
+        <v>109620.4345124105</v>
+      </c>
+      <c r="F130" s="4">
+        <v>139569.13885753462</v>
+      </c>
+      <c r="G130" s="4">
+        <v>233046.51024610997</v>
+      </c>
+      <c r="H130" s="4">
+        <v>336132.51534857112</v>
+      </c>
+      <c r="I130" s="4">
+        <v>397335.53050205682</v>
+      </c>
+      <c r="J130" s="4">
+        <v>499757.21580707742</v>
+      </c>
+      <c r="K130" s="4">
+        <v>601421.6379651482</v>
+      </c>
+      <c r="L130" s="4">
+        <v>607435.85434479965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
+        <v>0</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0</v>
+      </c>
+      <c r="K131" s="4">
+        <v>0</v>
+      </c>
+      <c r="L131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0</v>
+      </c>
+      <c r="K132" s="4">
+        <v>0</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="4">
+        <v>9031</v>
+      </c>
+      <c r="D133" s="4">
+        <v>9121.31</v>
+      </c>
+      <c r="E133" s="4">
+        <v>9212.5231000000003</v>
+      </c>
+      <c r="F133" s="4">
+        <v>9304.6483310000003</v>
+      </c>
+      <c r="G133" s="4">
+        <v>9397.6948143099999</v>
+      </c>
+      <c r="H133" s="4">
+        <v>9441.8417624530994</v>
+      </c>
+      <c r="I133" s="4">
+        <v>9536.2601800776301</v>
+      </c>
+      <c r="J133" s="4">
+        <v>9631.6227818784064</v>
+      </c>
+      <c r="K133" s="4">
+        <v>9727.9390096971911</v>
+      </c>
+      <c r="L133" s="4">
+        <v>9825.2183997941629</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3">
+        <v>38456.260499999997</v>
+      </c>
+      <c r="C134" s="4">
+        <v>86521.453104999993</v>
+      </c>
+      <c r="D134" s="4">
+        <v>101195.99763605</v>
+      </c>
+      <c r="E134" s="4">
+        <v>118832.95761241051</v>
+      </c>
+      <c r="F134" s="4">
+        <v>148873.78718853462</v>
+      </c>
+      <c r="G134" s="4">
+        <v>242444.20506041998</v>
+      </c>
+      <c r="H134" s="4">
+        <v>345574.3571110242</v>
+      </c>
+      <c r="I134" s="4">
+        <v>406871.79068213445</v>
+      </c>
+      <c r="J134" s="4">
+        <v>509388.83858895581</v>
+      </c>
+      <c r="K134" s="4">
+        <v>611149.57697484537</v>
+      </c>
+      <c r="L134" s="4">
+        <v>617261.07274459384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="3">
+        <v>-14862.707600000003</v>
+      </c>
+      <c r="C135" s="4">
+        <v>-35785.056138</v>
+      </c>
+      <c r="D135" s="4">
+        <v>-53314.736418689994</v>
+      </c>
+      <c r="E135" s="4">
+        <v>-98245.575100783433</v>
+      </c>
+      <c r="F135" s="4">
+        <v>-104431.25126379804</v>
+      </c>
+      <c r="G135" s="4">
+        <v>-133612.98252011702</v>
+      </c>
+      <c r="H135" s="4">
+        <v>-171260.27243271755</v>
+      </c>
+      <c r="I135" s="4">
+        <v>-204023.53879488111</v>
+      </c>
+      <c r="J135" s="4">
+        <v>-236456.07148885546</v>
+      </c>
+      <c r="K135" s="4">
+        <v>-248294.8968462997</v>
+      </c>
+      <c r="L135" s="4">
+        <v>-249594.27633053117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="3">
+        <v>-520</v>
+      </c>
+      <c r="C136" s="4">
+        <v>-1022.5999999999999</v>
+      </c>
+      <c r="D136" s="4">
+        <v>-1527.7129999999997</v>
+      </c>
+      <c r="E136" s="4">
+        <v>-17035.351565000001</v>
+      </c>
+      <c r="F136" s="4">
+        <v>-25120.528322824997</v>
+      </c>
+      <c r="G136" s="4">
+        <v>-25246.130964439119</v>
+      </c>
+      <c r="H136" s="4">
+        <v>-26504.361619261312</v>
+      </c>
+      <c r="I136" s="4">
+        <v>-27136.883427357614</v>
+      </c>
+      <c r="J136" s="4">
+        <v>-27272.567844494399</v>
+      </c>
+      <c r="K136" s="4">
+        <v>-27908.930683716866</v>
+      </c>
+      <c r="L136" s="4">
+        <v>-28048.475337135449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="3">
+        <v>-11003.127200000001</v>
+      </c>
+      <c r="C137" s="4">
+        <v>-26168.452835999997</v>
+      </c>
+      <c r="D137" s="4">
+        <v>-33085.725100179996</v>
+      </c>
+      <c r="E137" s="4">
+        <v>-36535.397476193633</v>
+      </c>
+      <c r="F137" s="4">
+        <v>-47586.608803333424</v>
+      </c>
+      <c r="G137" s="4">
+        <v>-65424.827391778483</v>
+      </c>
+      <c r="H137" s="4">
+        <v>-76801.917118317739</v>
+      </c>
+      <c r="I137" s="4">
+        <v>-84691.686703909319</v>
+      </c>
+      <c r="J137" s="4">
+        <v>-92108.849235572459</v>
+      </c>
+      <c r="K137" s="4">
+        <v>-94963.263481750313</v>
+      </c>
+      <c r="L137" s="4">
+        <v>-96378.079799159052</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="3">
+        <v>-7158.2888000000003</v>
+      </c>
+      <c r="C138" s="4">
+        <v>-13620.670244000001</v>
+      </c>
+      <c r="D138" s="4">
+        <v>-19205.273595220002</v>
+      </c>
+      <c r="E138" s="4">
+        <v>-25760.209963196099</v>
+      </c>
+      <c r="F138" s="4">
+        <v>-33626.751013012079</v>
+      </c>
+      <c r="G138" s="4">
+        <v>-45696.544768077132</v>
+      </c>
+      <c r="H138" s="4">
+        <v>-60221.357491917515</v>
+      </c>
+      <c r="I138" s="4">
+        <v>-76354.054279377102</v>
+      </c>
+      <c r="J138" s="4">
+        <v>-90205.914550773974</v>
+      </c>
+      <c r="K138" s="4">
+        <v>-104110.03412352783</v>
+      </c>
+      <c r="L138" s="4">
+        <v>-104630.58429414546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="3">
+        <v>-26244.4728</v>
+      </c>
+      <c r="C139" s="4">
+        <v>-59594.025163999991</v>
+      </c>
+      <c r="D139" s="4">
+        <v>-83210.915289819983</v>
+      </c>
+      <c r="E139" s="4">
+        <v>-106419.99986626908</v>
+      </c>
+      <c r="F139" s="4">
+        <v>-138048.57986560042</v>
+      </c>
+      <c r="G139" s="4">
+        <v>-176140.8627649284</v>
+      </c>
+      <c r="H139" s="4">
+        <v>-215665.51707875304</v>
+      </c>
+      <c r="I139" s="4">
+        <v>-252482.38466414678</v>
+      </c>
+      <c r="J139" s="4">
+        <v>-291263.77658746747</v>
+      </c>
+      <c r="K139" s="4">
+        <v>-331492.82547040476</v>
+      </c>
+      <c r="L139" s="4">
+        <v>-333150.28959775675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="3">
+        <v>-2736.9367999999999</v>
+      </c>
+      <c r="C140" s="4">
+        <v>-4752.5614839999998</v>
+      </c>
+      <c r="D140" s="4">
+        <v>-6970.9142914199992</v>
+      </c>
+      <c r="E140" s="4">
+        <v>-9104.0288628770977</v>
+      </c>
+      <c r="F140" s="4">
+        <v>-10958.829007191483</v>
+      </c>
+      <c r="G140" s="4">
+        <v>-15443.82315222744</v>
+      </c>
+      <c r="H140" s="4">
+        <v>-20677.782267988576</v>
+      </c>
+      <c r="I140" s="4">
+        <v>-23866.851179328518</v>
+      </c>
+      <c r="J140" s="4">
+        <v>-25827.645435225157</v>
+      </c>
+      <c r="K140" s="4">
+        <v>-34031.093662401276</v>
+      </c>
+      <c r="L140" s="4">
+        <v>-34201.24913071328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="3">
+        <v>-62525.533200000013</v>
+      </c>
+      <c r="C141" s="4">
+        <v>-140943.36586600001</v>
+      </c>
+      <c r="D141" s="4">
+        <v>-197315.27769532995</v>
+      </c>
+      <c r="E141" s="4">
+        <v>-293100.56283431937</v>
+      </c>
+      <c r="F141" s="4">
+        <v>-359772.54827576043</v>
+      </c>
+      <c r="G141" s="4">
+        <v>-461565.17156156758</v>
+      </c>
+      <c r="H141" s="4">
+        <v>-571131.2080089557</v>
+      </c>
+      <c r="I141" s="4">
+        <v>-668555.39904900047</v>
+      </c>
+      <c r="J141" s="4">
+        <v>-763134.82514238881</v>
+      </c>
+      <c r="K141" s="4">
+        <v>-840801.04426810076</v>
+      </c>
+      <c r="L141" s="4">
+        <v>-846002.95448944112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="3">
+        <v>-16132.511199999999</v>
+      </c>
+      <c r="C142" s="4">
+        <v>-34075.753755999991</v>
+      </c>
+      <c r="D142" s="4">
+        <v>-47865.042524779987</v>
+      </c>
+      <c r="E142" s="4">
+        <v>-53376.827737403881</v>
+      </c>
+      <c r="F142" s="4">
+        <v>-60010.671876090892</v>
+      </c>
+      <c r="G142" s="4">
+        <v>-70418.435235471348</v>
+      </c>
+      <c r="H142" s="4">
+        <v>-78784.907411648703</v>
+      </c>
+      <c r="I142" s="4">
+        <v>-87894.071948706944</v>
+      </c>
+      <c r="J142" s="4">
+        <v>-100795.89230845048</v>
+      </c>
+      <c r="K142" s="4">
+        <v>-116835.71176999272</v>
+      </c>
+      <c r="L142" s="4">
+        <v>-117419.89032884267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="3">
+        <v>-483.6</v>
+      </c>
+      <c r="C143" s="4">
+        <v>-6236.7979999999998</v>
+      </c>
+      <c r="D143" s="4">
+        <v>-6267.9819899999993</v>
+      </c>
+      <c r="E143" s="4">
+        <v>-6299.3218999499986</v>
+      </c>
+      <c r="F143" s="4">
+        <v>-6330.8185094497476</v>
+      </c>
+      <c r="G143" s="4">
+        <v>-6362.4726019969958</v>
+      </c>
+      <c r="H143" s="4">
+        <v>-6394.2849650069802</v>
+      </c>
+      <c r="I143" s="4">
+        <v>-6426.2563898320141</v>
+      </c>
+      <c r="J143" s="4">
+        <v>-6923.3876717811736</v>
+      </c>
+      <c r="K143" s="4">
+        <v>-6958.0046101400785</v>
+      </c>
+      <c r="L143" s="4">
+        <v>-6992.7946331907779</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="3">
+        <v>-1872</v>
+      </c>
+      <c r="C144" s="4">
+        <v>-3681.3599999999997</v>
+      </c>
+      <c r="D144" s="4">
+        <v>-5699.7667999999994</v>
+      </c>
+      <c r="E144" s="4">
+        <v>-6728.2656339999985</v>
+      </c>
+      <c r="F144" s="4">
+        <v>-8261.9069621699982</v>
+      </c>
+      <c r="G144" s="4">
+        <v>-12654.216496980847</v>
+      </c>
+      <c r="H144" s="4">
+        <v>-15357.487579465751</v>
+      </c>
+      <c r="I144" s="4">
+        <v>-15572.275017363077</v>
+      </c>
+      <c r="J144" s="4">
+        <v>-15926.136392449891</v>
+      </c>
+      <c r="K144" s="4">
+        <v>-16500.767074412139</v>
+      </c>
+      <c r="L144" s="4">
+        <v>-16583.270909784198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="3">
+        <v>-7064.0127999999995</v>
+      </c>
+      <c r="C145" s="4">
+        <v>-14752.212864000001</v>
+      </c>
+      <c r="D145" s="4">
+        <v>-19856.24392832</v>
+      </c>
+      <c r="E145" s="4">
+        <v>-24760.575147961597</v>
+      </c>
+      <c r="F145" s="4">
+        <v>-32265.888023701402</v>
+      </c>
+      <c r="G145" s="4">
+        <v>-41036.507463819908</v>
+      </c>
+      <c r="H145" s="4">
+        <v>-58183.530001139006</v>
+      </c>
+      <c r="I145" s="4">
+        <v>-66355.927651144695</v>
+      </c>
+      <c r="J145" s="4">
+        <v>-76541.657289400406</v>
+      </c>
+      <c r="K145" s="4">
+        <v>-90014.335575847406</v>
+      </c>
+      <c r="L145" s="4">
+        <v>-90464.407253726633</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="3">
+        <v>-8383.2111999999997</v>
+      </c>
+      <c r="C146" s="4">
+        <v>-17887.637255999998</v>
+      </c>
+      <c r="D146" s="4">
+        <v>-25177.165442279995</v>
+      </c>
+      <c r="E146" s="4">
+        <v>-35246.371269491392</v>
+      </c>
+      <c r="F146" s="4">
+        <v>-49584.19312583885</v>
+      </c>
+      <c r="G146" s="4">
+        <v>-69064.254091468028</v>
+      </c>
+      <c r="H146" s="4">
+        <v>-86567.955361925371</v>
+      </c>
+      <c r="I146" s="4">
+        <v>-103188.65513873499</v>
+      </c>
+      <c r="J146" s="4">
+        <v>-120184.33841442864</v>
+      </c>
+      <c r="K146" s="4">
+        <v>-138847.02010650077</v>
+      </c>
+      <c r="L146" s="4">
+        <v>-139541.25520703327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" s="3">
+        <v>-3376.6408000000001</v>
+      </c>
+      <c r="C147" s="4">
+        <v>-8891.154004</v>
+      </c>
+      <c r="D147" s="4">
+        <v>-12469.239774019999</v>
+      </c>
+      <c r="E147" s="4">
+        <v>-15051.055972890097</v>
+      </c>
+      <c r="F147" s="4">
+        <v>-18524.221252754545</v>
+      </c>
+      <c r="G147" s="4">
+        <v>-23189.842359018316</v>
+      </c>
+      <c r="H147" s="4">
+        <v>-27913.691570813404</v>
+      </c>
+      <c r="I147" s="4">
+        <v>-32626.260028667468</v>
+      </c>
+      <c r="J147" s="4">
+        <v>-37362.391328810801</v>
+      </c>
+      <c r="K147" s="4">
+        <v>-42060.993285454853</v>
+      </c>
+      <c r="L147" s="4">
+        <v>-42271.298251882123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="3">
+        <v>-37311.976000000002</v>
+      </c>
+      <c r="C148" s="4">
+        <v>-85524.915879999986</v>
+      </c>
+      <c r="D148" s="4">
+        <v>-117335.44045939998</v>
+      </c>
+      <c r="E148" s="4">
+        <v>-141462.41766169696</v>
+      </c>
+      <c r="F148" s="4">
+        <v>-174977.69975000544</v>
+      </c>
+      <c r="G148" s="4">
+        <v>-222725.72824875545</v>
+      </c>
+      <c r="H148" s="4">
+        <v>-273201.85688999924</v>
+      </c>
+      <c r="I148" s="4">
+        <v>-312063.44617444917</v>
+      </c>
+      <c r="J148" s="4">
+        <v>-357733.80340532144</v>
+      </c>
+      <c r="K148" s="4">
+        <v>-411216.83242234797</v>
+      </c>
+      <c r="L148" s="4">
+        <v>-413272.91658445966</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="3">
+        <v>-6508.2055999999993</v>
+      </c>
+      <c r="C149" s="4">
+        <v>-13602.166627999999</v>
+      </c>
+      <c r="D149" s="4">
+        <v>-19586.207461139998</v>
+      </c>
+      <c r="E149" s="4">
+        <v>-23928.878498445694</v>
+      </c>
+      <c r="F149" s="4">
+        <v>-30841.422890937916</v>
+      </c>
+      <c r="G149" s="4">
+        <v>-40173.910005392601</v>
+      </c>
+      <c r="H149" s="4">
+        <v>-56985.12955541956</v>
+      </c>
+      <c r="I149" s="4">
+        <v>-72759.225203196649</v>
+      </c>
+      <c r="J149" s="4">
+        <v>-96633.711329212631</v>
+      </c>
+      <c r="K149" s="4">
+        <v>-117529.38988585869</v>
+      </c>
+      <c r="L149" s="4">
+        <v>-118117.03683528797</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0</v>
+      </c>
+      <c r="I150" s="4">
+        <v>-630</v>
+      </c>
+      <c r="J150" s="4">
+        <v>-633.15</v>
+      </c>
+      <c r="K150" s="4">
+        <v>-636.31574999999987</v>
+      </c>
+      <c r="L150" s="4">
+        <v>-639.49732874999984</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="3">
+        <v>947.5440000000001</v>
+      </c>
+      <c r="C151" s="4">
+        <v>-2702.6182800000001</v>
+      </c>
+      <c r="D151" s="4">
+        <v>-2505.0313713999999</v>
+      </c>
+      <c r="E151" s="4">
+        <v>-2517.5565282569996</v>
+      </c>
+      <c r="F151" s="4">
+        <v>-2530.1443108982844</v>
+      </c>
+      <c r="G151" s="4">
+        <v>-1142.7950324527756</v>
+      </c>
+      <c r="H151" s="4">
+        <v>-1276.5090076150393</v>
+      </c>
+      <c r="I151" s="4">
+        <v>-1362.8915526531143</v>
+      </c>
+      <c r="J151" s="4">
+        <v>-979.60601041637972</v>
+      </c>
+      <c r="K151" s="4">
+        <v>-1689.1040404684613</v>
+      </c>
+      <c r="L151" s="4">
+        <v>-1697.5495606708034</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>0</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0</v>
+      </c>
+      <c r="I152" s="4">
+        <v>0</v>
+      </c>
+      <c r="J152" s="4">
+        <v>0</v>
+      </c>
+      <c r="K152" s="4">
+        <v>-300</v>
+      </c>
+      <c r="L152" s="4">
+        <v>-301.49999999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="3">
+        <v>-5560.6615999999995</v>
+      </c>
+      <c r="C153" s="4">
+        <v>-16304.784908</v>
+      </c>
+      <c r="D153" s="4">
+        <v>-22091.238832539999</v>
+      </c>
+      <c r="E153" s="4">
+        <v>-26446.435026702693</v>
+      </c>
+      <c r="F153" s="4">
+        <v>-33371.567201836202</v>
+      </c>
+      <c r="G153" s="4">
+        <v>-41316.705037845379</v>
+      </c>
+      <c r="H153" s="4">
+        <v>-58261.638563034598</v>
+      </c>
+      <c r="I153" s="4">
+        <v>-74752.116755849769</v>
+      </c>
+      <c r="J153" s="4">
+        <v>-98246.467339629002</v>
+      </c>
+      <c r="K153" s="4">
+        <v>-120154.80967632715</v>
+      </c>
+      <c r="L153" s="4">
+        <v>-120755.58372470878</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="3">
+        <v>-105398.17079999999</v>
+      </c>
+      <c r="C154" s="4">
+        <v>-242773.06665399997</v>
+      </c>
+      <c r="D154" s="4">
+        <v>-336741.95698726992</v>
+      </c>
+      <c r="E154" s="4">
+        <v>-461009.41552271898</v>
+      </c>
+      <c r="F154" s="4">
+        <v>-568121.81522760203</v>
+      </c>
+      <c r="G154" s="4">
+        <v>-725607.60484816844</v>
+      </c>
+      <c r="H154" s="4">
+        <v>-902594.70346198953</v>
+      </c>
+      <c r="I154" s="4">
+        <v>-1055370.9619792993</v>
+      </c>
+      <c r="J154" s="4">
+        <v>-1219115.0958873392</v>
+      </c>
+      <c r="K154" s="4">
+        <v>-1372172.6863667758</v>
+      </c>
+      <c r="L154" s="4">
+        <v>-1380031.4547986095</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" s="3">
+        <v>-66941.910299999989</v>
+      </c>
+      <c r="C155" s="4">
+        <v>-156251.61354899997</v>
+      </c>
+      <c r="D155" s="4">
+        <v>-235545.95935121994</v>
+      </c>
+      <c r="E155" s="4">
+        <v>-342176.4579103085</v>
+      </c>
+      <c r="F155" s="4">
+        <v>-419248.0280390674</v>
+      </c>
+      <c r="G155" s="4">
+        <v>-483163.39978774847</v>
+      </c>
+      <c r="H155" s="4">
+        <v>-557020.34635096532</v>
+      </c>
+      <c r="I155" s="4">
+        <v>-648499.17129716487</v>
+      </c>
+      <c r="J155" s="4">
+        <v>-709726.2572983834</v>
+      </c>
+      <c r="K155" s="4">
+        <v>-761023.1093919304</v>
+      </c>
+      <c r="L155" s="4">
+        <v>-762770.38205401564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="3">
+        <v>-1.7407285427557366</v>
+      </c>
+      <c r="C156" s="4">
+        <v>-1.8059291417514385</v>
+      </c>
+      <c r="D156" s="4">
+        <v>-2.327621297814146</v>
+      </c>
+      <c r="E156" s="4">
+        <v>-2.8794743881269245</v>
+      </c>
+      <c r="F156" s="4">
+        <v>-2.8161306026837973</v>
+      </c>
+      <c r="G156" s="4">
+        <v>-1.9928849182736226</v>
+      </c>
+      <c r="H156" s="4">
+        <v>-1.6118682850417889</v>
+      </c>
+      <c r="I156" s="4">
+        <v>-1.5938661419852524</v>
+      </c>
+      <c r="J156" s="4">
+        <v>-1.3932897690973693</v>
+      </c>
+      <c r="K156" s="4">
+        <v>-1.2452321625729501</v>
+      </c>
+      <c r="L156" s="4">
+        <v>-1.2357338178842676</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0</v>
+      </c>
+      <c r="H157" s="4">
+        <v>0</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0</v>
+      </c>
+      <c r="J157" s="4">
+        <v>0</v>
+      </c>
+      <c r="K157" s="4">
+        <v>0</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0</v>
+      </c>
+      <c r="I158" s="4">
+        <v>0</v>
+      </c>
+      <c r="J158" s="4">
+        <v>0</v>
+      </c>
+      <c r="K158" s="4">
+        <v>0</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="3">
+        <v>-66941.910299999989</v>
+      </c>
+      <c r="C159" s="4">
+        <v>-156251.61354899997</v>
+      </c>
+      <c r="D159" s="4">
+        <v>-235545.95935121994</v>
+      </c>
+      <c r="E159" s="4">
+        <v>-342176.4579103085</v>
+      </c>
+      <c r="F159" s="4">
+        <v>-419248.0280390674</v>
+      </c>
+      <c r="G159" s="4">
+        <v>-483163.39978774847</v>
+      </c>
+      <c r="H159" s="4">
+        <v>-557020.34635096532</v>
+      </c>
+      <c r="I159" s="4">
+        <v>-648499.17129716487</v>
+      </c>
+      <c r="J159" s="4">
+        <v>-709726.2572983834</v>
+      </c>
+      <c r="K159" s="4">
+        <v>-761023.1093919304</v>
+      </c>
+      <c r="L159" s="4">
+        <v>-762770.38205401564</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0</v>
+      </c>
+      <c r="H160" s="4">
+        <v>0</v>
+      </c>
+      <c r="I160" s="4">
+        <v>0</v>
+      </c>
+      <c r="J160" s="4">
+        <v>0</v>
+      </c>
+      <c r="K160" s="4">
+        <v>0</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>0</v>
+      </c>
+      <c r="H161" s="4">
+        <v>0</v>
+      </c>
+      <c r="I161" s="4">
+        <v>0</v>
+      </c>
+      <c r="J161" s="4">
+        <v>0</v>
+      </c>
+      <c r="K161" s="4">
+        <v>0</v>
+      </c>
+      <c r="L161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>0</v>
+      </c>
+      <c r="H162" s="4">
+        <v>0</v>
+      </c>
+      <c r="I162" s="4">
+        <v>0</v>
+      </c>
+      <c r="J162" s="4">
+        <v>0</v>
+      </c>
+      <c r="K162" s="4">
+        <v>0</v>
+      </c>
+      <c r="L162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="3">
+        <v>-66941.910299999989</v>
+      </c>
+      <c r="C163" s="4">
+        <v>-156251.61354899997</v>
+      </c>
+      <c r="D163" s="4">
+        <v>-235545.95935121994</v>
+      </c>
+      <c r="E163" s="4">
+        <v>-342176.4579103085</v>
+      </c>
+      <c r="F163" s="4">
+        <v>-419248.0280390674</v>
+      </c>
+      <c r="G163" s="4">
+        <v>-483163.39978774847</v>
+      </c>
+      <c r="H163" s="4">
+        <v>-557020.34635096532</v>
+      </c>
+      <c r="I163" s="4">
+        <v>-648499.17129716487</v>
+      </c>
+      <c r="J163" s="4">
+        <v>-709726.2572983834</v>
+      </c>
+      <c r="K163" s="4">
+        <v>-761023.1093919304</v>
+      </c>
+      <c r="L163" s="4">
+        <v>-762770.38205401564</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K164" s="4">
+        <v>3</v>
+      </c>
+      <c r="L164" s="4">
+        <v>3</v>
+      </c>
+      <c r="M164" s="4">
+        <v>3</v>
+      </c>
+      <c r="N164" s="4">
+        <v>3</v>
+      </c>
+      <c r="O164" s="4">
+        <v>3</v>
+      </c>
+      <c r="P164" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q164" s="4">
+        <v>3</v>
+      </c>
+      <c r="R164" s="4">
+        <v>3</v>
+      </c>
+      <c r="S164" s="4">
+        <v>3</v>
+      </c>
+      <c r="T164" s="4">
+        <v>3</v>
+      </c>
+      <c r="U164" s="4">
+        <v>3</v>
+      </c>
+      <c r="V164" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" s="4">
+        <v>3</v>
+      </c>
+      <c r="L165" s="4">
+        <v>3</v>
+      </c>
+      <c r="M165" s="4">
+        <v>3</v>
+      </c>
+      <c r="N165" s="4">
+        <v>3</v>
+      </c>
+      <c r="O165" s="4">
+        <v>3</v>
+      </c>
+      <c r="P165" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q165" s="4">
+        <v>3</v>
+      </c>
+      <c r="R165" s="4">
+        <v>3</v>
+      </c>
+      <c r="S165" s="4">
+        <v>3</v>
+      </c>
+      <c r="T165" s="4">
+        <v>3</v>
+      </c>
+      <c r="U165" s="4">
+        <v>3</v>
+      </c>
+      <c r="V165" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K166" s="4">
+        <v>3</v>
+      </c>
+      <c r="L166" s="4">
+        <v>3</v>
+      </c>
+      <c r="M166" s="4">
+        <v>3</v>
+      </c>
+      <c r="N166" s="4">
+        <v>3</v>
+      </c>
+      <c r="O166" s="4">
+        <v>3</v>
+      </c>
+      <c r="P166" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q166" s="4">
+        <v>3</v>
+      </c>
+      <c r="R166" s="4">
+        <v>3</v>
+      </c>
+      <c r="S166" s="4">
+        <v>3</v>
+      </c>
+      <c r="T166" s="4">
+        <v>3</v>
+      </c>
+      <c r="U166" s="4">
+        <v>3</v>
+      </c>
+      <c r="V166" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K167" s="4">
+        <v>3</v>
+      </c>
+      <c r="L167" s="4">
+        <v>3</v>
+      </c>
+      <c r="M167" s="4">
+        <v>3</v>
+      </c>
+      <c r="N167" s="4">
+        <v>3</v>
+      </c>
+      <c r="O167" s="4">
+        <v>3</v>
+      </c>
+      <c r="P167" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q167" s="4">
+        <v>3</v>
+      </c>
+      <c r="R167" s="4">
+        <v>3</v>
+      </c>
+      <c r="S167" s="4">
+        <v>3</v>
+      </c>
+      <c r="T167" s="4">
+        <v>3</v>
+      </c>
+      <c r="U167" s="4">
+        <v>3</v>
+      </c>
+      <c r="V167" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K168" s="4">
+        <v>3</v>
+      </c>
+      <c r="L168" s="4">
+        <v>3</v>
+      </c>
+      <c r="M168" s="4">
+        <v>3</v>
+      </c>
+      <c r="N168" s="4">
+        <v>3</v>
+      </c>
+      <c r="O168" s="4">
+        <v>3</v>
+      </c>
+      <c r="P168" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q168" s="4">
+        <v>3</v>
+      </c>
+      <c r="R168" s="4">
+        <v>3</v>
+      </c>
+      <c r="S168" s="4">
+        <v>3</v>
+      </c>
+      <c r="T168" s="4">
+        <v>3</v>
+      </c>
+      <c r="U168" s="4">
+        <v>3</v>
+      </c>
+      <c r="V168" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K169" s="4">
+        <v>3</v>
+      </c>
+      <c r="L169" s="4">
+        <v>3</v>
+      </c>
+      <c r="M169" s="4">
+        <v>3</v>
+      </c>
+      <c r="N169" s="4">
+        <v>3</v>
+      </c>
+      <c r="O169" s="4">
+        <v>3</v>
+      </c>
+      <c r="P169" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q169" s="4">
+        <v>3</v>
+      </c>
+      <c r="R169" s="4">
+        <v>3</v>
+      </c>
+      <c r="S169" s="4">
+        <v>3</v>
+      </c>
+      <c r="T169" s="4">
+        <v>3</v>
+      </c>
+      <c r="U169" s="4">
+        <v>3</v>
+      </c>
+      <c r="V169" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K170" s="4">
+        <v>3</v>
+      </c>
+      <c r="L170" s="4">
+        <v>3</v>
+      </c>
+      <c r="M170" s="4">
+        <v>3</v>
+      </c>
+      <c r="N170" s="4">
+        <v>3</v>
+      </c>
+      <c r="O170" s="4">
+        <v>3</v>
+      </c>
+      <c r="P170" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q170" s="4">
+        <v>3</v>
+      </c>
+      <c r="R170" s="4">
+        <v>3</v>
+      </c>
+      <c r="S170" s="4">
+        <v>3</v>
+      </c>
+      <c r="T170" s="4">
+        <v>3</v>
+      </c>
+      <c r="U170" s="4">
+        <v>3</v>
+      </c>
+      <c r="V170" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K171" s="4">
+        <v>3</v>
+      </c>
+      <c r="L171" s="4">
+        <v>3</v>
+      </c>
+      <c r="M171" s="4">
+        <v>3</v>
+      </c>
+      <c r="N171" s="4">
+        <v>3</v>
+      </c>
+      <c r="O171" s="4">
+        <v>3</v>
+      </c>
+      <c r="P171" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q171" s="4">
+        <v>3</v>
+      </c>
+      <c r="R171" s="4">
+        <v>3</v>
+      </c>
+      <c r="S171" s="4">
+        <v>3</v>
+      </c>
+      <c r="T171" s="4">
+        <v>3</v>
+      </c>
+      <c r="U171" s="4">
+        <v>3</v>
+      </c>
+      <c r="V171" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K172" s="4">
+        <v>3</v>
+      </c>
+      <c r="L172" s="4">
+        <v>3</v>
+      </c>
+      <c r="M172" s="4">
+        <v>3</v>
+      </c>
+      <c r="N172" s="4">
+        <v>3</v>
+      </c>
+      <c r="O172" s="4">
+        <v>3</v>
+      </c>
+      <c r="P172" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q172" s="4">
+        <v>3</v>
+      </c>
+      <c r="R172" s="4">
+        <v>3</v>
+      </c>
+      <c r="S172" s="4">
+        <v>3</v>
+      </c>
+      <c r="T172" s="4">
+        <v>3</v>
+      </c>
+      <c r="U172" s="4">
+        <v>3</v>
+      </c>
+      <c r="V172" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K173" s="4">
+        <v>3</v>
+      </c>
+      <c r="L173" s="4">
+        <v>3</v>
+      </c>
+      <c r="M173" s="4">
+        <v>3</v>
+      </c>
+      <c r="N173" s="4">
+        <v>3</v>
+      </c>
+      <c r="O173" s="4">
+        <v>3</v>
+      </c>
+      <c r="P173" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q173" s="4">
+        <v>3</v>
+      </c>
+      <c r="R173" s="4">
+        <v>3</v>
+      </c>
+      <c r="S173" s="4">
+        <v>3</v>
+      </c>
+      <c r="T173" s="4">
+        <v>3</v>
+      </c>
+      <c r="U173" s="4">
+        <v>3</v>
+      </c>
+      <c r="V173" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K174" s="4">
+        <v>3</v>
+      </c>
+      <c r="L174" s="4">
+        <v>3</v>
+      </c>
+      <c r="M174" s="4">
+        <v>3</v>
+      </c>
+      <c r="N174" s="4">
+        <v>3</v>
+      </c>
+      <c r="O174" s="4">
+        <v>3</v>
+      </c>
+      <c r="P174" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q174" s="4">
+        <v>3</v>
+      </c>
+      <c r="R174" s="4">
+        <v>3</v>
+      </c>
+      <c r="S174" s="4">
+        <v>3</v>
+      </c>
+      <c r="T174" s="4">
+        <v>3</v>
+      </c>
+      <c r="U174" s="4">
+        <v>3</v>
+      </c>
+      <c r="V174" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K175" s="4">
+        <v>3</v>
+      </c>
+      <c r="L175" s="4">
+        <v>3</v>
+      </c>
+      <c r="M175" s="4">
+        <v>3</v>
+      </c>
+      <c r="N175" s="4">
+        <v>3</v>
+      </c>
+      <c r="O175" s="4">
+        <v>3</v>
+      </c>
+      <c r="P175" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q175" s="4">
+        <v>3</v>
+      </c>
+      <c r="R175" s="4">
+        <v>3</v>
+      </c>
+      <c r="S175" s="4">
+        <v>3</v>
+      </c>
+      <c r="T175" s="4">
+        <v>3</v>
+      </c>
+      <c r="U175" s="4">
+        <v>3</v>
+      </c>
+      <c r="V175" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K176" s="4">
+        <v>3</v>
+      </c>
+      <c r="L176" s="4">
+        <v>3</v>
+      </c>
+      <c r="M176" s="4">
+        <v>3</v>
+      </c>
+      <c r="N176" s="4">
+        <v>3</v>
+      </c>
+      <c r="O176" s="4">
+        <v>3</v>
+      </c>
+      <c r="P176" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q176" s="4">
+        <v>3</v>
+      </c>
+      <c r="R176" s="4">
+        <v>3</v>
+      </c>
+      <c r="S176" s="4">
+        <v>3</v>
+      </c>
+      <c r="T176" s="4">
+        <v>3</v>
+      </c>
+      <c r="U176" s="4">
+        <v>3</v>
+      </c>
+      <c r="V176" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K177" s="4">
+        <v>3</v>
+      </c>
+      <c r="L177" s="4">
+        <v>3</v>
+      </c>
+      <c r="M177" s="4">
+        <v>3</v>
+      </c>
+      <c r="N177" s="4">
+        <v>3</v>
+      </c>
+      <c r="O177" s="4">
+        <v>3</v>
+      </c>
+      <c r="P177" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q177" s="4">
+        <v>3</v>
+      </c>
+      <c r="R177" s="4">
+        <v>3</v>
+      </c>
+      <c r="S177" s="4">
+        <v>3</v>
+      </c>
+      <c r="T177" s="4">
+        <v>3</v>
+      </c>
+      <c r="U177" s="4">
+        <v>3</v>
+      </c>
+      <c r="V177" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K178" s="4">
+        <v>3</v>
+      </c>
+      <c r="L178" s="4">
+        <v>3</v>
+      </c>
+      <c r="M178" s="4">
+        <v>3</v>
+      </c>
+      <c r="N178" s="4">
+        <v>3</v>
+      </c>
+      <c r="O178" s="4">
+        <v>3</v>
+      </c>
+      <c r="P178" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q178" s="4">
+        <v>3</v>
+      </c>
+      <c r="R178" s="4">
+        <v>3</v>
+      </c>
+      <c r="S178" s="4">
+        <v>3</v>
+      </c>
+      <c r="T178" s="4">
+        <v>3</v>
+      </c>
+      <c r="U178" s="4">
+        <v>3</v>
+      </c>
+      <c r="V178" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K179" s="4">
+        <v>3</v>
+      </c>
+      <c r="L179" s="4">
+        <v>3</v>
+      </c>
+      <c r="M179" s="4">
+        <v>3</v>
+      </c>
+      <c r="N179" s="4">
+        <v>3</v>
+      </c>
+      <c r="O179" s="4">
+        <v>3</v>
+      </c>
+      <c r="P179" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q179" s="4">
+        <v>3</v>
+      </c>
+      <c r="R179" s="4">
+        <v>3</v>
+      </c>
+      <c r="S179" s="4">
+        <v>3</v>
+      </c>
+      <c r="T179" s="4">
+        <v>3</v>
+      </c>
+      <c r="U179" s="4">
+        <v>3</v>
+      </c>
+      <c r="V179" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K180" s="4">
+        <v>3</v>
+      </c>
+      <c r="L180" s="4">
+        <v>3</v>
+      </c>
+      <c r="M180" s="4">
+        <v>3</v>
+      </c>
+      <c r="N180" s="4">
+        <v>3</v>
+      </c>
+      <c r="O180" s="4">
+        <v>3</v>
+      </c>
+      <c r="P180" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q180" s="4">
+        <v>3</v>
+      </c>
+      <c r="R180" s="4">
+        <v>3</v>
+      </c>
+      <c r="S180" s="4">
+        <v>3</v>
+      </c>
+      <c r="T180" s="4">
+        <v>3</v>
+      </c>
+      <c r="U180" s="4">
+        <v>3</v>
+      </c>
+      <c r="V180" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K181" s="4">
+        <v>3</v>
+      </c>
+      <c r="L181" s="4">
+        <v>3</v>
+      </c>
+      <c r="M181" s="4">
+        <v>3</v>
+      </c>
+      <c r="N181" s="4">
+        <v>3</v>
+      </c>
+      <c r="O181" s="4">
+        <v>3</v>
+      </c>
+      <c r="P181" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q181" s="4">
+        <v>3</v>
+      </c>
+      <c r="R181" s="4">
+        <v>3</v>
+      </c>
+      <c r="S181" s="4">
+        <v>3</v>
+      </c>
+      <c r="T181" s="4">
+        <v>3</v>
+      </c>
+      <c r="U181" s="4">
+        <v>3</v>
+      </c>
+      <c r="V181" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K182" s="4">
+        <v>3</v>
+      </c>
+      <c r="L182" s="4">
+        <v>3</v>
+      </c>
+      <c r="M182" s="4">
+        <v>3</v>
+      </c>
+      <c r="N182" s="4">
+        <v>3</v>
+      </c>
+      <c r="O182" s="4">
+        <v>3</v>
+      </c>
+      <c r="P182" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q182" s="4">
+        <v>3</v>
+      </c>
+      <c r="R182" s="4">
+        <v>3</v>
+      </c>
+      <c r="S182" s="4">
+        <v>3</v>
+      </c>
+      <c r="T182" s="4">
+        <v>3</v>
+      </c>
+      <c r="U182" s="4">
+        <v>3</v>
+      </c>
+      <c r="V182" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L163" xr:uid="{4B09C797-B55F-8243-94F3-B8ACAD33B426}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>